--- a/Product.xlsx
+++ b/Product.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a.vorobjev\PycharmProjects\pharma\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3FC9524-92B4-4FEE-82BF-49382DDA3D18}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CC70727-EE38-4FC5-A534-C857152A9B22}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -495,17 +495,17 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="H1" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="22.21875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="44.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="52.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="38.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="44.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="52.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="38.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
@@ -516,22 +516,22 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
@@ -541,23 +541,23 @@
       <c r="B2" t="s">
         <v>8</v>
       </c>
-      <c r="C2">
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2">
         <v>13544</v>
       </c>
-      <c r="D2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2">
+      <c r="H2">
         <v>4108</v>
-      </c>
-      <c r="G2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
@@ -567,23 +567,23 @@
       <c r="B3" t="s">
         <v>13</v>
       </c>
-      <c r="C3">
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3">
         <v>18272</v>
       </c>
-      <c r="D3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3">
+      <c r="H3">
         <v>3891</v>
-      </c>
-      <c r="G3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -593,23 +593,23 @@
       <c r="B4" t="s">
         <v>18</v>
       </c>
-      <c r="C4">
+      <c r="C4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4">
         <v>228555</v>
       </c>
-      <c r="D4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4">
+      <c r="H4">
         <v>47567</v>
-      </c>
-      <c r="G4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -619,23 +619,23 @@
       <c r="B5" t="s">
         <v>24</v>
       </c>
-      <c r="C5">
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5">
         <v>14573</v>
       </c>
-      <c r="D5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F5">
+      <c r="H5">
         <v>46507</v>
-      </c>
-      <c r="G5" t="s">
-        <v>28</v>
-      </c>
-      <c r="H5" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
@@ -645,23 +645,23 @@
       <c r="B6" t="s">
         <v>30</v>
       </c>
-      <c r="C6">
+      <c r="C6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G6">
         <v>228553</v>
       </c>
-      <c r="D6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E6" t="s">
-        <v>33</v>
-      </c>
-      <c r="F6">
+      <c r="H6">
         <v>45639</v>
-      </c>
-      <c r="G6" t="s">
-        <v>34</v>
-      </c>
-      <c r="H6" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
@@ -671,23 +671,23 @@
       <c r="B7" t="s">
         <v>36</v>
       </c>
-      <c r="C7">
+      <c r="C7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G7">
         <v>228552</v>
       </c>
-      <c r="D7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E7" t="s">
-        <v>39</v>
-      </c>
-      <c r="F7">
+      <c r="H7">
         <v>45640</v>
-      </c>
-      <c r="G7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H7" t="s">
-        <v>41</v>
       </c>
     </row>
   </sheetData>
